--- a/marketing/vilniaus-barai.xlsx
+++ b/marketing/vilniaus-barai.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="20055" windowHeight="10485"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="20055" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="vilniaus-barai" sheetId="1" r:id="rId1"/>
+    <sheet name="brands" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">brands!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vilniaus-barai'!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="242">
   <si>
     <t>Baras</t>
   </si>
@@ -27,12 +31,6 @@
     <t>Telefonas</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>Url</t>
   </si>
   <si>
@@ -159,9 +157,6 @@
     <t>Erdinger</t>
   </si>
   <si>
-    <t>Veltins pilsener</t>
-  </si>
-  <si>
     <t>Būsi trečias</t>
   </si>
   <si>
@@ -429,108 +424,6 @@
     <t>http://www.bermudaiclub.lt/</t>
   </si>
   <si>
-    <t>latitude,longitude,name,desc,color</t>
-  </si>
-  <si>
-    <t>54.6932528,25.270084,"A. Goštauto g. 8, Vilnius","8 A. Goštauto gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.7171368,25.2216737,"Justiniškių g. 91 ,Vilnius","91 Justiniškių gatvė, Vilnius 05009, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6792624,25.2886435,"Savičiaus g. 5-1, Vilnius","5 Savičiaus gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6852651,25.3572492,"Belmonto g.17, Vilnius","17A Belmonto gatvė, Vilnius 11010, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6903759,25.2561,"A. Mickevičiaus g. 2a, Vilnius","2 A. Mickevičiaus gatvė, Vilnius 08001, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.680379,25.2818101,"Trakų g. 15, Vilnius","15 Trakų gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6859567,25.2795064,"Vilniaus g. 12, Vilnius","12 Vilniaus gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.7127277,25.2717928,"Ozo g. 25, Vilnius","25 Ozo gatvė, Vilnius 08009, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6762947,25.2882825,"Aušros Vartų g. 11, Vilnius","11 Aušros Vartų gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6845751,25.2823112,Totorių g. 18. Vilnius,"18 Totorių gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6811882,25.2843802,"Domininkonų g. 6, Vilnius","Šv. Dvasios domininkonų bažnyčia, 8 Dominikonų gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6892177,25.2516716,"Vykinto g. 17a, Vilnius","17 Vykinto gatvė, Vilnius 08001, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6750192,25.2824646,"Šv. Stepono 8, Vilnius","8 Šv. Stepono gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6812654,25.3012616,"Polocko 7, Vilnius","7 Polocko gatvė, Vilnius 01025, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6826155,25.2724954,"K. Kalinausko 11, Vilnius","11 K. Kalinausko gatvė, Vilnius 03001, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6792602,25.2855335,"Antokolskio g. 13, Vilnius","13 M. Antokolskio gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6840313,25.2894708,"Pilies g. 8, Vilnius","8 Pilies St, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6805646,25.2903254,"Bokšto 7, Vilnius","7 Bokšto gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6893865,25.2800243,"Laisvės pr. 88, Vilnius","Vilnius, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6729071,25.2862764,"Pylimo g. 60, Vilnius","60 Pylimo gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6747256,25.2694839,"Naugarduko g. 32, Vilnius","32 Naugarduko gatvė, Vilnius 03011, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6741394,25.2859476,Bazilijonų gatvė 6,"6A Bazilijonų gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6809148,25.2979667,"Užupio g. 40, Vilnius","40 Užupio gatvė, Vilnius 01025, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6805511,25.2922544,"Užupio 2a, Vilnius","2 Užupio gatvė, Vilnius 01025, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6800877,25.2958167,"Paupio g. 3, Vilnius","3 Paupio gatvė, Vilnius 01025, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6938689,25.2775397,"Šnipiškių g. 3, Vilnius","3 Šnipiškių gatvė, Vilnius 09020, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6774303,25.2551304,"Savanorių 16, Vilnius","16 Savanorių prospektas, Vilnius 03001, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6794895,25.2807925,"Trakų g. 11/Pranciškonų g. 2, Vilnius","Pranciškonų bažnyčia ir vienuolynas, 9 Trakų gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6800344,25.2863445,"Stiklių g. 7, Vilnius","7 Stiklių gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.7076179,25.2958828,"S. Žukausko 20, Vilnius","20 S. Žukausko gatvė, Vilnius 08009, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.678471,25.2860236,"Vokiečių g. 4, Vilnius","4 Vokiečių gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6842615,25.2771523,"Pylimo g. 8/2, Vilnius","2 Pylimo gatvė, Vilnius 01013, Lithuania",</t>
-  </si>
-  <si>
-    <t>54.6961061,25.2691852,"Upes 6, Vilnius","6 Upės gatvė, Vilnius 09020, Lithuania",</t>
-  </si>
-  <si>
     <t>54.6932528</t>
   </si>
   <si>
@@ -733,6 +626,126 @@
   </si>
   <si>
     <t>longtitude</t>
+  </si>
+  <si>
+    <t>Rinkuškių proginis</t>
+  </si>
+  <si>
+    <t>Kanapinis tamsus</t>
+  </si>
+  <si>
+    <t>Vilniaus nefiltruotas</t>
+  </si>
+  <si>
+    <t>Jovarų šnekutis</t>
+  </si>
+  <si>
+    <t>Alūs</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Barai</t>
+  </si>
+  <si>
+    <t>Alaus baras (Pylimo)</t>
+  </si>
+  <si>
+    <t>Alaus baras (Justiniškės)</t>
+  </si>
+  <si>
+    <t>Krušovec</t>
+  </si>
+  <si>
+    <t>Belmonto šviesusis</t>
+  </si>
+  <si>
+    <t>Belmonto ypatingasis</t>
+  </si>
+  <si>
+    <t>Velvet</t>
+  </si>
+  <si>
+    <t>Zubr</t>
+  </si>
+  <si>
+    <t>Franziskaner</t>
+  </si>
+  <si>
+    <t>Staropramen</t>
+  </si>
+  <si>
+    <t>neveik telefas</t>
+  </si>
+  <si>
+    <t>Pogo Baras</t>
+  </si>
+  <si>
+    <t>Bermudai, Pogo Baras</t>
+  </si>
+  <si>
+    <t>Blusynė, Pogo Baras</t>
+  </si>
+  <si>
+    <t>Pogo Baras, Savas kampas</t>
+  </si>
+  <si>
+    <t>Veltins</t>
+  </si>
+  <si>
+    <t>Būsi Trečias</t>
+  </si>
+  <si>
+    <t>Budweiser "BUDVAR"</t>
+  </si>
+  <si>
+    <t>Švyturys "Baltas"</t>
+  </si>
+  <si>
+    <t>Kalnapilis "Grand"</t>
+  </si>
+  <si>
+    <t>Prie Katedros</t>
+  </si>
+  <si>
+    <t>http://www.priekatedros.lt/Bravoras_Prie_Katedros/Prie_Katedros.html</t>
+  </si>
+  <si>
+    <t>Gedimino pr. 5, Vilnius</t>
+  </si>
+  <si>
+    <t>25.2832854</t>
+  </si>
+  <si>
+    <t>54.6864964</t>
+  </si>
+  <si>
+    <t>8 605 77555</t>
+  </si>
+  <si>
+    <t>Katedros Šviesusis</t>
+  </si>
+  <si>
+    <t>Katedros Tamsusis</t>
+  </si>
+  <si>
+    <t>Katedros Medaus</t>
+  </si>
+  <si>
+    <t>Prie Katedros, Domininkonu karčiama</t>
+  </si>
+  <si>
+    <t>http://www.priekatedros.lt/Bravoras_Prie_Katedros/Alaus_rusys.html</t>
+  </si>
+  <si>
+    <t>Švyturys "Extra"</t>
+  </si>
+  <si>
+    <t>Grimbergen</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1091,12 +1104,10 @@
     <col min="4" max="4" width="38.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="88.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,769 +1118,719 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="2">
-        <v>25269440</v>
-      </c>
-      <c r="I2" s="2">
-        <v>25.269439999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>67777335</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>37066259613</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="E15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="E16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>78</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
         <v>84</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
+      <c r="E20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
         <v>85</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
       </c>
       <c r="C21">
         <v>868238097</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
-      </c>
-      <c r="I21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
+      <c r="E22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
+      <c r="E23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" t="s">
-        <v>160</v>
-      </c>
-      <c r="I24" t="s">
-        <v>99</v>
-      </c>
-      <c r="J24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
+      <c r="E25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
         <v>104</v>
       </c>
-      <c r="D25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
+      <c r="E26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
         <v>105</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>106</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="E27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
         <v>109</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
         <v>111</v>
       </c>
-      <c r="D27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
+      <c r="E28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>112</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
         <v>113</v>
       </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="E29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
         <v>118</v>
       </c>
-      <c r="C29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G29" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="E30" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>121</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
         <v>123</v>
       </c>
-      <c r="D30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
+      <c r="E31" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>124</v>
       </c>
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
         <v>126</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" t="s">
-        <v>129</v>
       </c>
       <c r="C32">
         <v>852123203</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
         <v>130</v>
       </c>
-      <c r="D33" t="s">
-        <v>133</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G33" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C34">
         <v>37065570262</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1877,90 +1838,970 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>67777335</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>37066259613</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <v>868238097</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32">
+        <v>852123203</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34">
+        <v>37065570262</v>
+      </c>
+      <c r="D34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/marketing/vilniaus-barai.xlsx
+++ b/marketing/vilniaus-barai.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">brands!$B$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">brands!$A$1:$D$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vilniaus-barai'!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="376">
   <si>
     <t>Baras</t>
   </si>
@@ -274,9 +274,6 @@
     <t xml:space="preserve"> Pylimo g. 60, Vilnius</t>
   </si>
   <si>
-    <t xml:space="preserve"> Varniukų, Liuks, Tradicinis, Natūralus.</t>
-  </si>
-  <si>
     <t>Molinis Ąsotis</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>B6</t>
   </si>
   <si>
-    <t>Bazilijonų gatvė 6</t>
-  </si>
-  <si>
     <t>(8 603) 29332</t>
   </si>
   <si>
@@ -304,9 +298,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>Tores šviesus - gyvas nefiltruotas/tamsus</t>
-  </si>
-  <si>
     <t>Užupio g. 40, Vilnius</t>
   </si>
   <si>
@@ -364,9 +355,6 @@
     <t>Trakų g. 11/Pranciškonų g. 2, Vilnius</t>
   </si>
   <si>
-    <t>Budweiser Bernard</t>
-  </si>
-  <si>
     <t>Bambalynė</t>
   </si>
   <si>
@@ -397,9 +385,6 @@
     <t>Vokiečių g. 4, Vilnius</t>
   </si>
   <si>
-    <t>8 684 74299</t>
-  </si>
-  <si>
     <t>Chillout baras</t>
   </si>
   <si>
@@ -718,9 +703,6 @@
     <t>Katedros Medaus</t>
   </si>
   <si>
-    <t>http://www.priekatedros.lt/Bravoras_Prie_Katedros/Alaus_rusys.html</t>
-  </si>
-  <si>
     <t>Švyturys "Extra"</t>
   </si>
   <si>
@@ -832,21 +814,6 @@
     <t>prie_katedros</t>
   </si>
   <si>
-    <t>pogo, savas_kampas</t>
-  </si>
-  <si>
-    <t>busi_trecias, plieno_paukste</t>
-  </si>
-  <si>
-    <t>bunte_gans, plieno_paukste</t>
-  </si>
-  <si>
-    <t>bermudai, pogo</t>
-  </si>
-  <si>
-    <t>blusyne, pogo, plieno_paukste</t>
-  </si>
-  <si>
     <t>prie_katedros, dominink_karciama</t>
   </si>
   <si>
@@ -938,13 +905,256 @@
   </si>
   <si>
     <t>grimbergen</t>
+  </si>
+  <si>
+    <t>pilies</t>
+  </si>
+  <si>
+    <t>Pilies</t>
+  </si>
+  <si>
+    <t>ekstra_tvirtoves</t>
+  </si>
+  <si>
+    <t>Ekstra Tvirtovės</t>
+  </si>
+  <si>
+    <t>utenos</t>
+  </si>
+  <si>
+    <t>wall_street</t>
+  </si>
+  <si>
+    <t>Wall Street</t>
+  </si>
+  <si>
+    <t>Lvovo g. 25, Vilnius</t>
+  </si>
+  <si>
+    <t>8 52 195916</t>
+  </si>
+  <si>
+    <t>http://www.wallst.lt/</t>
+  </si>
+  <si>
+    <t>54.6955893</t>
+  </si>
+  <si>
+    <t>25.2802079</t>
+  </si>
+  <si>
+    <t>bunte_gans, plieno_paukste, wall_street</t>
+  </si>
+  <si>
+    <t>pilies_mene, alaus_baras_just</t>
+  </si>
+  <si>
+    <t>svyturys_baltijos</t>
+  </si>
+  <si>
+    <t>Švyturys "Baltijos"</t>
+  </si>
+  <si>
+    <t>birzu_sirvenos</t>
+  </si>
+  <si>
+    <t>Biržų Širvenos</t>
+  </si>
+  <si>
+    <t>Bazilijonų g. 6</t>
+  </si>
+  <si>
+    <t>Tores gyvas nefiltruotas</t>
+  </si>
+  <si>
+    <t>busi_trecias, pilies_mene, uzupio_picerija</t>
+  </si>
+  <si>
+    <t>Bernard Černe</t>
+  </si>
+  <si>
+    <t>bernard_cerne</t>
+  </si>
+  <si>
+    <t>tik buteliai</t>
+  </si>
+  <si>
+    <t>raudonuju_dobilu</t>
+  </si>
+  <si>
+    <t>Raudonųjų Dobilų</t>
+  </si>
+  <si>
+    <t>chillout, alaus_namai</t>
+  </si>
+  <si>
+    <t>butautu_dvaro</t>
+  </si>
+  <si>
+    <t>Butautų Dvaro</t>
+  </si>
+  <si>
+    <t>kunigaiksciu</t>
+  </si>
+  <si>
+    <t>Kunigaikščių</t>
+  </si>
+  <si>
+    <t>tauro_tradicinis</t>
+  </si>
+  <si>
+    <t>Tauro Tradicinis</t>
+  </si>
+  <si>
+    <t>jalta, pilies_mene, alaus_baras_just, molinis_asotis, b6, uzupio_picerija, mamutas</t>
+  </si>
+  <si>
+    <t>molinis_asotis, mamutas</t>
+  </si>
+  <si>
+    <t>Keisti ženklai</t>
+  </si>
+  <si>
+    <t>keisti_zenklai</t>
+  </si>
+  <si>
+    <t>Trakų g. 13, Vilnius</t>
+  </si>
+  <si>
+    <t>(8 5) 2610779</t>
+  </si>
+  <si>
+    <t>54.6803049</t>
+  </si>
+  <si>
+    <t>25.2813502</t>
+  </si>
+  <si>
+    <t>mamutas, keisti_zenklai</t>
+  </si>
+  <si>
+    <t>gubernijos_kvietinis</t>
+  </si>
+  <si>
+    <t>Gubernijos kvietinis</t>
+  </si>
+  <si>
+    <t>bermudai, alaus_namai</t>
+  </si>
+  <si>
+    <t>dundulio</t>
+  </si>
+  <si>
+    <t>Dundulio</t>
+  </si>
+  <si>
+    <t>daujotu</t>
+  </si>
+  <si>
+    <t>Daujotų</t>
+  </si>
+  <si>
+    <t>pogo, alaus_baras_pyli, alaus_namai</t>
+  </si>
+  <si>
+    <t>backoriu_tamsusis</t>
+  </si>
+  <si>
+    <t>Bačkorių tamsusis</t>
+  </si>
+  <si>
+    <t>vilkmerges_tamsusis</t>
+  </si>
+  <si>
+    <t>Vilkmergės tamsusis</t>
+  </si>
+  <si>
+    <t>Murphy's stout</t>
+  </si>
+  <si>
+    <t>murphys_stout</t>
+  </si>
+  <si>
+    <t>blusyne, simo_baras, alaus_studija</t>
+  </si>
+  <si>
+    <t>dolce_vita, alaus_studija</t>
+  </si>
+  <si>
+    <t>blusyne, pogo, plieno_paukste, alaus_studija</t>
+  </si>
+  <si>
+    <t>pogo, savas_kampas, wall_street, alaus_studija</t>
+  </si>
+  <si>
+    <t>bunte_gans, simo_baras, alaus_studija</t>
+  </si>
+  <si>
+    <t>new_castle_brown_ale</t>
+  </si>
+  <si>
+    <t>Newcastle Brown Ale</t>
+  </si>
+  <si>
+    <t>b6, alaus_namai, obuolys</t>
+  </si>
+  <si>
+    <t>bunte_gans, alaus_studija, obuolys</t>
+  </si>
+  <si>
+    <t>bermudai, obuolys</t>
+  </si>
+  <si>
+    <t>bermudai, pogo, obuolys</t>
+  </si>
+  <si>
+    <t>wall_street, obuolys</t>
+  </si>
+  <si>
+    <t>tucher</t>
+  </si>
+  <si>
+    <t>Tucher</t>
+  </si>
+  <si>
+    <t>busi_trecias, pilies_mene, mamutas, obuolys</t>
+  </si>
+  <si>
+    <t>busi_trecias, plieno_paukste, simo_baras, dolce_vita, alaus_studija, obuolys</t>
+  </si>
+  <si>
+    <t>burito, obuolys</t>
+  </si>
+  <si>
+    <t>chodovar</t>
+  </si>
+  <si>
+    <t>Chodovar</t>
+  </si>
+  <si>
+    <t>kozel</t>
+  </si>
+  <si>
+    <t>Kozel</t>
+  </si>
+  <si>
+    <t>obuolys,wall_street</t>
+  </si>
+  <si>
+    <t>alaus_studija, obuolys</t>
+  </si>
+  <si>
+    <t>Leffe</t>
+  </si>
+  <si>
+    <t>leffe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,6 +1170,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -982,12 +1198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1302,7 +1519,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1317,18 +1534,18 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -1343,19 +1560,21 @@
         <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1364,15 +1583,18 @@
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1387,18 +1609,18 @@
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1413,18 +1635,18 @@
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1436,18 +1658,18 @@
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1462,18 +1684,18 @@
         <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -1488,18 +1710,18 @@
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -1514,18 +1736,18 @@
         <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
@@ -1540,18 +1762,18 @@
         <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -1566,18 +1788,18 @@
         <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -1592,18 +1814,18 @@
         <v>49</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -1618,18 +1840,18 @@
         <v>55</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -1644,15 +1866,15 @@
         <v>59</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -1667,15 +1889,15 @@
         <v>62</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -1687,18 +1909,18 @@
         <v>66</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -1713,15 +1935,15 @@
         <v>68</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -1736,15 +1958,18 @@
         <v>72</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="H18" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -1759,15 +1984,18 @@
         <v>78</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="H19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
         <v>80</v>
@@ -1779,18 +2007,21 @@
         <v>81</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="H20" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
         <v>83</v>
@@ -1799,335 +2030,402 @@
         <v>868238097</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="H22" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" t="s">
         <v>88</v>
       </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
+      </c>
+      <c r="H23" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
         <v>92</v>
       </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" t="s">
+        <v>201</v>
+      </c>
+      <c r="I24" t="s">
         <v>91</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H24" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
+      </c>
+      <c r="H26" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
         <v>103</v>
       </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="H28" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" t="s">
-        <v>113</v>
-      </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="H30" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="H31" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>852123203</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H32" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="H33" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D34">
         <v>37065570262</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H34" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" t="s">
         <v>223</v>
       </c>
-      <c r="C35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" t="s">
-        <v>228</v>
-      </c>
       <c r="E35" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H35" t="s">
-        <v>206</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E36" t="s">
+        <v>304</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" t="s">
+        <v>330</v>
+      </c>
+      <c r="C37" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" t="s">
+        <v>333</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H37" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2139,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2154,384 +2452,633 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>206</v>
+        <v>346</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" t="s">
-        <v>206</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>341</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>355</v>
+      </c>
+      <c r="D15" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>290</v>
       </c>
-      <c r="B16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>356</v>
+      </c>
+      <c r="B33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36" t="s">
+        <v>320</v>
+      </c>
+      <c r="C36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>286</v>
+      </c>
+      <c r="B39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>309</v>
+      </c>
+      <c r="B41" t="s">
+        <v>310</v>
+      </c>
+      <c r="C41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" t="s">
+        <v>327</v>
+      </c>
+      <c r="C43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>363</v>
+      </c>
+      <c r="B45" t="s">
+        <v>364</v>
+      </c>
+      <c r="C45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" t="s">
+        <v>359</v>
+      </c>
+      <c r="D48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>283</v>
+      </c>
+      <c r="B49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>292</v>
-      </c>
-      <c r="B18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>293</v>
-      </c>
-      <c r="B19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>294</v>
-      </c>
-      <c r="B20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>243</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>298</v>
-      </c>
-      <c r="B26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>299</v>
-      </c>
-      <c r="B27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>301</v>
-      </c>
-      <c r="B29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" t="s">
-        <v>275</v>
-      </c>
-      <c r="E29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>302</v>
-      </c>
-      <c r="B30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>303</v>
-      </c>
-      <c r="B31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C31" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>304</v>
-      </c>
-      <c r="B32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C32" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>305</v>
-      </c>
-      <c r="B33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" t="s">
-        <v>247</v>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>375</v>
+      </c>
+      <c r="B55" t="s">
+        <v>374</v>
+      </c>
+      <c r="C55" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D1"/>
+  <autoFilter ref="A1:D37">
+    <sortState ref="A2:D54">
+      <sortCondition ref="A1:A37"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
